--- a/my1stProject/block1_ps/block1_ps.xlsx
+++ b/my1stProject/block1_ps/block1_ps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirti\Documents\soc_repository\my1stProject\block1_ps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\block1_ps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -2811,10 +2811,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3166,8 +3166,8 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -5653,7 +5653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5793,9 +5793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,10 +5982,10 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="11" t="s">
         <v>421</v>
       </c>
       <c r="D16" s="6"/>
@@ -5993,10 +5993,10 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="11" t="s">
         <v>421</v>
       </c>
       <c r="D17" s="6"/>
@@ -6004,10 +6004,10 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D18" s="6"/>
@@ -6015,10 +6015,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D19" s="6"/>
@@ -6026,10 +6026,10 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="11" t="s">
         <v>421</v>
       </c>
       <c r="D20" s="6"/>
@@ -6037,10 +6037,10 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D21" s="6"/>
@@ -7531,7 +7531,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="163"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="110"/>
       <c r="D3" s="111"/>
       <c r="E3" s="112"/>
@@ -7545,8 +7545,8 @@
       <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="165"/>
       <c r="E4" s="166"/>
       <c r="F4" s="113"/>
@@ -7559,8 +7559,8 @@
       <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="165"/>
       <c r="E5" s="166"/>
       <c r="F5" s="113"/>
@@ -7573,8 +7573,8 @@
       <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="165"/>
       <c r="E6" s="166"/>
       <c r="F6" s="113"/>
@@ -7587,8 +7587,8 @@
       <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="165"/>
       <c r="E7" s="166"/>
       <c r="F7" s="113"/>
@@ -7601,8 +7601,8 @@
       <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="165"/>
       <c r="E8" s="166"/>
       <c r="F8" s="113"/>
@@ -7615,7 +7615,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="90"/>
       <c r="D9" s="111"/>
       <c r="E9" s="112"/>
@@ -7629,7 +7629,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="163"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
@@ -7643,7 +7643,7 @@
       <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="163"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="124"/>
       <c r="D11" s="116"/>
       <c r="E11" s="125"/>
@@ -7657,8 +7657,8 @@
       <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="165"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
@@ -7671,8 +7671,8 @@
       <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="165"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -7685,8 +7685,8 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="165"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
@@ -7699,8 +7699,8 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="165"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -7713,8 +7713,8 @@
       <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="165"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
@@ -7727,8 +7727,8 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="165"/>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -7741,8 +7741,8 @@
       <c r="M17" s="122"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="165"/>
       <c r="E18" s="112"/>
       <c r="F18" s="113"/>
@@ -7755,8 +7755,8 @@
       <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
-      <c r="C19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="165"/>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -7812,12 +7812,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7828,6 +7822,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my1stProject/block1_ps/block1_ps.xlsx
+++ b/my1stProject/block1_ps/block1_ps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -1627,9 +1627,6 @@
     <t>htrans</t>
   </si>
   <si>
-    <t>hresp</t>
-  </si>
-  <si>
     <t>hsize</t>
   </si>
   <si>
@@ -1649,6 +1646,9 @@
   </si>
   <si>
     <t>[15:0]</t>
+  </si>
+  <si>
+    <t>hwritej</t>
   </si>
 </sst>
 </file>
@@ -5793,9 +5793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>419</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>421</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>419</v>
@@ -6170,9 +6170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6304,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>422</v>
@@ -6355,7 +6355,7 @@
         <v>424</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6368,7 +6368,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>425</v>
@@ -6384,7 +6384,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>426</v>
@@ -6432,10 +6432,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
